--- a/data_lab1.xlsx
+++ b/data_lab1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calibrazione" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="180">
   <si>
     <t xml:space="preserve">Volt da 100 a 800 mV</t>
   </si>
@@ -246,6 +246,9 @@
     <t xml:space="preserve">4, 40, 400 mA</t>
   </si>
   <si>
+    <t xml:space="preserve">Err multi costruttore</t>
+  </si>
+  <si>
     <t xml:space="preserve">mV/div</t>
   </si>
   <si>
@@ -258,6 +261,15 @@
     <t xml:space="preserve">err rel</t>
   </si>
   <si>
+    <t xml:space="preserve">Multimetro (mA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multi no digit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err multi (mA)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scala multimetro</t>
   </si>
   <si>
@@ -366,18 +378,30 @@
     <t xml:space="preserve">04.77</t>
   </si>
   <si>
+    <t xml:space="preserve">4.77</t>
+  </si>
+  <si>
     <t xml:space="preserve">40 mA</t>
   </si>
   <si>
     <t xml:space="preserve">06.42</t>
   </si>
   <si>
+    <t xml:space="preserve">6.42</t>
+  </si>
+  <si>
     <t xml:space="preserve">07.85</t>
   </si>
   <si>
+    <t xml:space="preserve">7.85</t>
+  </si>
+  <si>
     <t xml:space="preserve">09.75</t>
   </si>
   <si>
+    <t xml:space="preserve">9.75</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.005</t>
   </si>
   <si>
@@ -417,9 +441,6 @@
     <t xml:space="preserve">0.043</t>
   </si>
   <si>
-    <t xml:space="preserve">50 mV</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.045</t>
   </si>
   <si>
@@ -535,9 +556,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 mV</t>
   </si>
   <si>
     <t xml:space="preserve">3.808</t>
@@ -550,15 +568,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
     <numFmt numFmtId="169" formatCode="General"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="#,##0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0"/>
+    <numFmt numFmtId="172" formatCode="#,##0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -617,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -641,6 +660,15 @@
         <color rgb="FFFF0000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -669,7 +697,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -770,11 +798,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -790,7 +854,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1172,11 +1236,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50681782"/>
-        <c:axId val="84561360"/>
+        <c:axId val="71858083"/>
+        <c:axId val="36066326"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50681782"/>
+        <c:axId val="71858083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,12 +1282,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84561360"/>
+        <c:crossAx val="36066326"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84561360"/>
+        <c:axId val="36066326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1329,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50681782"/>
+        <c:crossAx val="71858083"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1507,8 +1571,8 @@
   </sheetPr>
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3964,10 +4028,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:K51"/>
+  <dimension ref="B3:N57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3976,11 +4040,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="10.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="10.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="25.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="25.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="10.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="10.55"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,13 +4057,13 @@
       <c r="C3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="1" t="s">
@@ -4004,11 +4071,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4016,31 +4091,42 @@
         <f aca="false">0.5*(5/5)</f>
         <v>0.5</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>0.03</v>
-      </c>
+      <c r="G7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="27" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,8 +4136,8 @@
       <c r="C10" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="D10" s="26" t="n">
-        <f aca="false">SQRT((0.5*B10/5)^2 + ($F$7)^2 + (C10*$H$7)^2)</f>
+      <c r="D10" s="30" t="n">
+        <f aca="false">SQRT((0.5*B10/5)^2 + ($F$7)^2 + (C10*$D$6)^2)</f>
         <v>3.64005494464026</v>
       </c>
       <c r="E10" s="10" t="n">
@@ -4059,21 +4145,32 @@
         <v>0.0364005494464026</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="25" t="n">
+        <f aca="false">G10*$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="31" t="n">
+        <f aca="false">ROUND(H10,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="D11" s="26" t="n">
-        <f aca="false">SQRT((0.5*B11/5)^2 + ($F$7)^2 + (C11*$H$7)^2)</f>
+      <c r="D11" s="30" t="n">
+        <f aca="false">SQRT((0.5*B11/5)^2 + ($F$7)^2 + (C11*$D$6)^2)</f>
         <v>4.14849370253831</v>
       </c>
       <c r="E11" s="10" t="n">
@@ -4081,10 +4178,21 @@
         <v>0.0345707808544859</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="25" t="n">
+        <f aca="false">G11*$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="31" t="n">
+        <f aca="false">ROUND(H11,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,8 +4202,8 @@
       <c r="C12" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="D12" s="26" t="n">
-        <f aca="false">SQRT((0.5*B12/5)^2 + ($F$7)^2 + (C12*$H$7)^2)</f>
+      <c r="D12" s="30" t="n">
+        <f aca="false">SQRT((0.5*B12/5)^2 + ($F$7)^2 + (C12*$D$6)^2)</f>
         <v>6.74536878161602</v>
       </c>
       <c r="E12" s="10" t="n">
@@ -4103,10 +4211,21 @@
         <v>0.0449691252107735</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="25" t="n">
+        <f aca="false">G12*$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="31" t="n">
+        <f aca="false">ROUND(H12,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4116,8 +4235,8 @@
       <c r="C13" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="D13" s="26" t="n">
-        <f aca="false">SQRT((0.5*B13/5)^2 + ($F$7)^2 + (C13*$H$7)^2)</f>
+      <c r="D13" s="30" t="n">
+        <f aca="false">SQRT((0.5*B13/5)^2 + ($F$7)^2 + (C13*$D$6)^2)</f>
         <v>7.82623792124926</v>
       </c>
       <c r="E13" s="10" t="n">
@@ -4125,10 +4244,21 @@
         <v>0.0391311896062463</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="25" t="n">
+        <f aca="false">G13*$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="31" t="n">
+        <f aca="false">ROUND(H13,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,8 +4268,8 @@
       <c r="C14" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="D14" s="26" t="n">
-        <f aca="false">SQRT((0.5*B14/5)^2 + ($F$7)^2 + (C14*$H$7)^2)</f>
+      <c r="D14" s="30" t="n">
+        <f aca="false">SQRT((0.5*B14/5)^2 + ($F$7)^2 + (C14*$D$6)^2)</f>
         <v>9.02773504263389</v>
       </c>
       <c r="E14" s="10" t="n">
@@ -4147,10 +4277,21 @@
         <v>0.0361109401705356</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="25" t="n">
+        <f aca="false">G14*$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="31" t="n">
+        <f aca="false">ROUND(H14,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,8 +4301,8 @@
       <c r="C15" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="D15" s="26" t="n">
-        <f aca="false">SQRT((0.5*B15/5)^2 + ($F$7)^2 + (C15*$H$7)^2)</f>
+      <c r="D15" s="30" t="n">
+        <f aca="false">SQRT((0.5*B15/5)^2 + ($F$7)^2 + (C15*$D$6)^2)</f>
         <v>10.3077640640442</v>
       </c>
       <c r="E15" s="10" t="n">
@@ -4169,10 +4310,21 @@
         <v>0.0343592135468138</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="25" t="n">
+        <f aca="false">G15*$H$7</f>
+        <v>4E-006</v>
+      </c>
+      <c r="I15" s="31" t="n">
+        <f aca="false">ROUND(H15,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,8 +4334,8 @@
       <c r="C16" s="5" t="n">
         <v>330</v>
       </c>
-      <c r="D16" s="26" t="n">
-        <f aca="false">SQRT((0.5*B16/5)^2 + ($F$7)^2 + (C16*$H$7)^2)</f>
+      <c r="D16" s="30" t="n">
+        <f aca="false">SQRT((0.5*B16/5)^2 + ($F$7)^2 + (C16*$D$6)^2)</f>
         <v>11.1022520238013</v>
       </c>
       <c r="E16" s="10" t="n">
@@ -4191,10 +4343,21 @@
         <v>0.033643187950913</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="25" t="n">
+        <f aca="false">G16*$H$7</f>
+        <v>8E-006</v>
+      </c>
+      <c r="I16" s="31" t="n">
+        <f aca="false">ROUND(H16,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4204,8 +4367,8 @@
       <c r="C17" s="5" t="n">
         <v>340</v>
       </c>
-      <c r="D17" s="26" t="n">
-        <f aca="false">SQRT((0.5*B17/5)^2 + ($F$7)^2 + (C17*$H$7)^2)</f>
+      <c r="D17" s="30" t="n">
+        <f aca="false">SQRT((0.5*B17/5)^2 + ($F$7)^2 + (C17*$D$6)^2)</f>
         <v>14.293005282305</v>
       </c>
       <c r="E17" s="10" t="n">
@@ -4213,10 +4376,21 @@
         <v>0.042038250830309</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="25" t="n">
+        <f aca="false">G17*$H$7</f>
+        <v>1.2E-005</v>
+      </c>
+      <c r="I17" s="31" t="n">
+        <f aca="false">ROUND(H17,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,8 +4400,8 @@
       <c r="C18" s="5" t="n">
         <v>360</v>
       </c>
-      <c r="D18" s="26" t="n">
-        <f aca="false">SQRT((0.5*B18/5)^2 + ($F$7)^2 + (C18*$H$7)^2)</f>
+      <c r="D18" s="30" t="n">
+        <f aca="false">SQRT((0.5*B18/5)^2 + ($F$7)^2 + (C18*$D$6)^2)</f>
         <v>14.7271857460956</v>
       </c>
       <c r="E18" s="10" t="n">
@@ -4235,10 +4409,21 @@
         <v>0.0409088492947099</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="25" t="n">
+        <f aca="false">G18*$H$7</f>
+        <v>1.6E-005</v>
+      </c>
+      <c r="I18" s="31" t="n">
+        <f aca="false">ROUND(H18,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,8 +4433,8 @@
       <c r="C19" s="5" t="n">
         <v>380</v>
       </c>
-      <c r="D19" s="26" t="n">
-        <f aca="false">SQRT((0.5*B19/5)^2 + ($F$7)^2 + (C19*$H$7)^2)</f>
+      <c r="D19" s="30" t="n">
+        <f aca="false">SQRT((0.5*B19/5)^2 + ($F$7)^2 + (C19*$D$6)^2)</f>
         <v>15.1726728034318</v>
       </c>
       <c r="E19" s="10" t="n">
@@ -4257,10 +4442,21 @@
         <v>0.0399280863248206</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="25" t="n">
+        <f aca="false">G19*$H$7</f>
+        <v>2.4E-005</v>
+      </c>
+      <c r="I19" s="31" t="n">
+        <f aca="false">ROUND(H19,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4270,8 +4466,8 @@
       <c r="C20" s="5" t="n">
         <v>400</v>
       </c>
-      <c r="D20" s="26" t="n">
-        <f aca="false">SQRT((0.5*B20/5)^2 + ($F$7)^2 + (C20*$H$7)^2)</f>
+      <c r="D20" s="30" t="n">
+        <f aca="false">SQRT((0.5*B20/5)^2 + ($F$7)^2 + (C20*$D$6)^2)</f>
         <v>15.6284996080878</v>
       </c>
       <c r="E20" s="10" t="n">
@@ -4279,10 +4475,21 @@
         <v>0.0390712490202195</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="25" t="n">
+        <f aca="false">G20*$H$7</f>
+        <v>4E-005</v>
+      </c>
+      <c r="I20" s="31" t="n">
+        <f aca="false">ROUND(H20,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,8 +4499,8 @@
       <c r="C21" s="5" t="n">
         <v>410</v>
       </c>
-      <c r="D21" s="26" t="n">
-        <f aca="false">SQRT((0.5*B21/5)^2 + ($F$7)^2 + (C21*$H$7)^2)</f>
+      <c r="D21" s="30" t="n">
+        <f aca="false">SQRT((0.5*B21/5)^2 + ($F$7)^2 + (C21*$D$6)^2)</f>
         <v>15.8600126103355</v>
       </c>
       <c r="E21" s="10" t="n">
@@ -4301,10 +4508,21 @@
         <v>0.0386829575861841</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="25" t="n">
+        <f aca="false">G21*$H$7</f>
+        <v>4.8E-005</v>
+      </c>
+      <c r="I21" s="31" t="n">
+        <f aca="false">ROUND(H21,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,8 +4532,8 @@
       <c r="C22" s="5" t="n">
         <v>420</v>
       </c>
-      <c r="D22" s="26" t="n">
-        <f aca="false">SQRT((0.5*B22/5)^2 + ($F$7)^2 + (C22*$H$7)^2)</f>
+      <c r="D22" s="30" t="n">
+        <f aca="false">SQRT((0.5*B22/5)^2 + ($F$7)^2 + (C22*$D$6)^2)</f>
         <v>16.0937876213153</v>
       </c>
       <c r="E22" s="10" t="n">
@@ -4323,10 +4541,21 @@
         <v>0.0383185419555125</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="25" t="n">
+        <f aca="false">G22*$H$7</f>
+        <v>6E-005</v>
+      </c>
+      <c r="I22" s="31" t="n">
+        <f aca="false">ROUND(H22,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,8 +4565,8 @@
       <c r="C23" s="5" t="n">
         <v>430</v>
       </c>
-      <c r="D23" s="26" t="n">
-        <f aca="false">SQRT((0.5*B23/5)^2 + ($F$7)^2 + (C23*$H$7)^2)</f>
+      <c r="D23" s="30" t="n">
+        <f aca="false">SQRT((0.5*B23/5)^2 + ($F$7)^2 + (C23*$D$6)^2)</f>
         <v>16.3297274931335</v>
       </c>
       <c r="E23" s="10" t="n">
@@ -4345,10 +4574,21 @@
         <v>0.0379761104491477</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="25" t="n">
+        <f aca="false">G23*$H$7</f>
+        <v>7.2E-005</v>
+      </c>
+      <c r="I23" s="31" t="n">
+        <f aca="false">ROUND(H23,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4358,8 +4598,8 @@
       <c r="C24" s="5" t="n">
         <v>440</v>
       </c>
-      <c r="D24" s="26" t="n">
-        <f aca="false">SQRT((0.5*B24/5)^2 + ($F$7)^2 + (C24*$H$7)^2)</f>
+      <c r="D24" s="30" t="n">
+        <f aca="false">SQRT((0.5*B24/5)^2 + ($F$7)^2 + (C24*$D$6)^2)</f>
         <v>16.5677397372122</v>
       </c>
       <c r="E24" s="10" t="n">
@@ -4367,10 +4607,21 @@
         <v>0.0376539539482095</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="25" t="n">
+        <f aca="false">G24*$H$7</f>
+        <v>9.2E-005</v>
+      </c>
+      <c r="I24" s="31" t="n">
+        <f aca="false">ROUND(H24,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,8 +4631,8 @@
       <c r="C25" s="5" t="n">
         <v>450</v>
       </c>
-      <c r="D25" s="26" t="n">
-        <f aca="false">SQRT((0.5*B25/5)^2 + ($F$7)^2 + (C25*$H$7)^2)</f>
+      <c r="D25" s="30" t="n">
+        <f aca="false">SQRT((0.5*B25/5)^2 + ($F$7)^2 + (C25*$D$6)^2)</f>
         <v>16.8077363139716</v>
       </c>
       <c r="E25" s="10" t="n">
@@ -4389,10 +4640,21 @@
         <v>0.0373505251421591</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="25" t="n">
+        <f aca="false">G25*$H$7</f>
+        <v>0.000112</v>
+      </c>
+      <c r="I25" s="31" t="n">
+        <f aca="false">ROUND(H25,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,8 +4664,8 @@
       <c r="C26" s="5" t="n">
         <v>460</v>
       </c>
-      <c r="D26" s="26" t="n">
-        <f aca="false">SQRT((0.5*B26/5)^2 + ($F$7)^2 + (C26*$H$7)^2)</f>
+      <c r="D26" s="30" t="n">
+        <f aca="false">SQRT((0.5*B26/5)^2 + ($F$7)^2 + (C26*$D$6)^2)</f>
         <v>17.0496334271444</v>
       </c>
       <c r="E26" s="10" t="n">
@@ -4411,10 +4673,21 @@
         <v>0.0370644204937922</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="25" t="n">
+        <f aca="false">G26*$H$7</f>
+        <v>0.00014</v>
+      </c>
+      <c r="I26" s="31" t="n">
+        <f aca="false">ROUND(H26,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,8 +4697,8 @@
       <c r="C27" s="5" t="n">
         <v>470</v>
       </c>
-      <c r="D27" s="26" t="n">
-        <f aca="false">SQRT((0.5*B27/5)^2 + ($F$7)^2 + (C27*$H$7)^2)</f>
+      <c r="D27" s="30" t="n">
+        <f aca="false">SQRT((0.5*B27/5)^2 + ($F$7)^2 + (C27*$D$6)^2)</f>
         <v>17.2933513235579</v>
       </c>
       <c r="E27" s="10" t="n">
@@ -4433,10 +4706,21 @@
         <v>0.0367943645182082</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="25" t="n">
+        <f aca="false">G27*$H$7</f>
+        <v>0.000168</v>
+      </c>
+      <c r="I27" s="31" t="n">
+        <f aca="false">ROUND(H27,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,8 +4730,8 @@
       <c r="C28" s="5" t="n">
         <v>480</v>
       </c>
-      <c r="D28" s="26" t="n">
-        <f aca="false">SQRT((0.5*B28/5)^2 + ($F$7)^2 + (C28*$H$7)^2)</f>
+      <c r="D28" s="30" t="n">
+        <f aca="false">SQRT((0.5*B28/5)^2 + ($F$7)^2 + (C28*$D$6)^2)</f>
         <v>17.5388140990205</v>
       </c>
       <c r="E28" s="10" t="n">
@@ -4455,10 +4739,21 @@
         <v>0.036539196039626</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="25" t="n">
+        <f aca="false">G28*$H$7</f>
+        <v>0.000208</v>
+      </c>
+      <c r="I28" s="31" t="n">
+        <f aca="false">ROUND(H28,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,8 +4763,8 @@
       <c r="C29" s="5" t="n">
         <v>490</v>
       </c>
-      <c r="D29" s="26" t="n">
-        <f aca="false">SQRT((0.5*B29/5)^2 + ($F$7)^2 + (C29*$H$7)^2)</f>
+      <c r="D29" s="30" t="n">
+        <f aca="false">SQRT((0.5*B29/5)^2 + ($F$7)^2 + (C29*$D$6)^2)</f>
         <v>17.7859495107796</v>
       </c>
       <c r="E29" s="10" t="n">
@@ -4477,10 +4772,21 @@
         <v>0.0362978561444481</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="25" t="n">
+        <f aca="false">G29*$H$7</f>
+        <v>0.000256</v>
+      </c>
+      <c r="I29" s="31" t="n">
+        <f aca="false">ROUND(H29,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,8 +4796,8 @@
       <c r="C30" s="5" t="n">
         <v>500</v>
       </c>
-      <c r="D30" s="26" t="n">
-        <f aca="false">SQRT((0.5*B30/5)^2 + ($F$7)^2 + (C30*$H$7)^2)</f>
+      <c r="D30" s="30" t="n">
+        <f aca="false">SQRT((0.5*B30/5)^2 + ($F$7)^2 + (C30*$D$6)^2)</f>
         <v>18.0346887968714</v>
       </c>
       <c r="E30" s="10" t="n">
@@ -4499,10 +4805,21 @@
         <v>0.0360693775937429</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="25" t="n">
+        <f aca="false">G30*$H$7</f>
+        <v>0.000312</v>
+      </c>
+      <c r="I30" s="31" t="n">
+        <f aca="false">ROUND(H30,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4512,8 +4829,8 @@
       <c r="C31" s="5" t="n">
         <v>510</v>
       </c>
-      <c r="D31" s="26" t="n">
-        <f aca="false">SQRT((0.5*B31/5)^2 + ($F$7)^2 + (C31*$H$7)^2)</f>
+      <c r="D31" s="30" t="n">
+        <f aca="false">SQRT((0.5*B31/5)^2 + ($F$7)^2 + (C31*$D$6)^2)</f>
         <v>18.2849665025671</v>
       </c>
       <c r="E31" s="10" t="n">
@@ -4521,10 +4838,21 @@
         <v>0.0358528754952296</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="25" t="n">
+        <f aca="false">G31*$H$7</f>
+        <v>0.0004</v>
+      </c>
+      <c r="I31" s="31" t="n">
+        <f aca="false">ROUND(H31,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,8 +4862,8 @@
       <c r="C32" s="5" t="n">
         <v>520</v>
       </c>
-      <c r="D32" s="26" t="n">
-        <f aca="false">SQRT((0.5*B32/5)^2 + ($F$7)^2 + (C32*$H$7)^2)</f>
+      <c r="D32" s="30" t="n">
+        <f aca="false">SQRT((0.5*B32/5)^2 + ($F$7)^2 + (C32*$D$6)^2)</f>
         <v>18.5367203140146</v>
       </c>
       <c r="E32" s="10" t="n">
@@ -4543,10 +4871,21 @@
         <v>0.0356475390654126</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="25" t="n">
+        <f aca="false">G32*$H$7</f>
+        <v>0.000484</v>
+      </c>
+      <c r="I32" s="31" t="n">
+        <f aca="false">ROUND(H32,3)+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,8 +4895,8 @@
       <c r="C33" s="5" t="n">
         <v>530</v>
       </c>
-      <c r="D33" s="26" t="n">
-        <f aca="false">SQRT((0.5*B33/5)^2 + ($F$7)^2 + (C33*$H$7)^2)</f>
+      <c r="D33" s="30" t="n">
+        <f aca="false">SQRT((0.5*B33/5)^2 + ($F$7)^2 + (C33*$D$6)^2)</f>
         <v>18.7898908990978</v>
       </c>
       <c r="E33" s="10" t="n">
@@ -4565,10 +4904,21 @@
         <v>0.0354526243379205</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="25" t="n">
+        <f aca="false">G33*$H$7</f>
+        <v>0.0006</v>
+      </c>
+      <c r="I33" s="31" t="n">
+        <f aca="false">ROUND(H33,3)+0.002</f>
+        <v>0.003</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,8 +4928,8 @@
       <c r="C34" s="5" t="n">
         <v>540</v>
       </c>
-      <c r="D34" s="26" t="n">
-        <f aca="false">SQRT((0.5*B34/5)^2 + ($F$7)^2 + (C34*$H$7)^2)</f>
+      <c r="D34" s="30" t="n">
+        <f aca="false">SQRT((0.5*B34/5)^2 + ($F$7)^2 + (C34*$D$6)^2)</f>
         <v>19.0444217554643</v>
       </c>
       <c r="E34" s="10" t="n">
@@ -4587,10 +4937,21 @@
         <v>0.0352674476953042</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="25" t="n">
+        <f aca="false">G34*$H$7</f>
+        <v>0.000756</v>
+      </c>
+      <c r="I34" s="31" t="n">
+        <f aca="false">ROUND(H34,3)+0.002</f>
+        <v>0.003</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,8 +4961,8 @@
       <c r="C35" s="5" t="n">
         <v>550</v>
       </c>
-      <c r="D35" s="26" t="n">
-        <f aca="false">SQRT((0.5*B35/5)^2 + ($F$7)^2 + (C35*$H$7)^2)</f>
+      <c r="D35" s="30" t="n">
+        <f aca="false">SQRT((0.5*B35/5)^2 + ($F$7)^2 + (C35*$D$6)^2)</f>
         <v>19.3002590656188</v>
       </c>
       <c r="E35" s="10" t="n">
@@ -4609,10 +4970,21 @@
         <v>0.0350913801193069</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="25" t="n">
+        <f aca="false">G35*$H$7</f>
+        <v>0.000924</v>
+      </c>
+      <c r="I35" s="31" t="n">
+        <f aca="false">ROUND(H35,3)+0.002</f>
+        <v>0.003</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,8 +4994,8 @@
       <c r="C36" s="5" t="n">
         <v>560</v>
       </c>
-      <c r="D36" s="26" t="n">
-        <f aca="false">SQRT((0.5*B36/5)^2 + ($F$7)^2 + (C36*$H$7)^2)</f>
+      <c r="D36" s="30" t="n">
+        <f aca="false">SQRT((0.5*B36/5)^2 + ($F$7)^2 + (C36*$D$6)^2)</f>
         <v>19.5573515589407</v>
       </c>
       <c r="E36" s="10" t="n">
@@ -4631,10 +5003,21 @@
         <v>0.034923842069537</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" s="25" t="n">
+        <f aca="false">G36*$H$7</f>
+        <v>0.001136</v>
+      </c>
+      <c r="I36" s="31" t="n">
+        <f aca="false">ROUND(H36,3)+0.002</f>
+        <v>0.003</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,8 +5027,8 @@
       <c r="C37" s="5" t="n">
         <v>570</v>
       </c>
-      <c r="D37" s="26" t="n">
-        <f aca="false">SQRT((0.5*B37/5)^2 + ($F$7)^2 + (C37*$H$7)^2)</f>
+      <c r="D37" s="30" t="n">
+        <f aca="false">SQRT((0.5*B37/5)^2 + ($F$7)^2 + (C37*$D$6)^2)</f>
         <v>19.8156503804442</v>
       </c>
       <c r="E37" s="10" t="n">
@@ -4653,10 +5036,21 @@
         <v>0.0347642989130601</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="25" t="n">
+        <f aca="false">G37*$H$7</f>
+        <v>0.001412</v>
+      </c>
+      <c r="I37" s="31" t="n">
+        <f aca="false">ROUND(H37,3)+0.002</f>
+        <v>0.003</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4666,8 +5060,8 @@
       <c r="C38" s="5" t="n">
         <v>580</v>
       </c>
-      <c r="D38" s="26" t="n">
-        <f aca="false">SQRT((0.5*B38/5)^2 + ($F$7)^2 + (C38*$H$7)^2)</f>
+      <c r="D38" s="30" t="n">
+        <f aca="false">SQRT((0.5*B38/5)^2 + ($F$7)^2 + (C38*$D$6)^2)</f>
         <v>20.0751089660804</v>
       </c>
       <c r="E38" s="10" t="n">
@@ -4675,10 +5069,21 @@
         <v>0.0346122568380696</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="25" t="n">
+        <f aca="false">G38*$H$7</f>
+        <v>0.001776</v>
+      </c>
+      <c r="I38" s="31" t="n">
+        <f aca="false">ROUND(H38,3)+0.002</f>
+        <v>0.004</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,8 +5093,8 @@
       <c r="C39" s="5" t="n">
         <v>590</v>
       </c>
-      <c r="D39" s="26" t="n">
-        <f aca="false">SQRT((0.5*B39/5)^2 + ($F$7)^2 + (C39*$H$7)^2)</f>
+      <c r="D39" s="30" t="n">
+        <f aca="false">SQRT((0.5*B39/5)^2 + ($F$7)^2 + (C39*$D$6)^2)</f>
         <v>20.3356829243574</v>
       </c>
       <c r="E39" s="10" t="n">
@@ -4697,10 +5102,21 @@
         <v>0.0344672591938261</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>80</v>
+        <v>109</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="25" t="n">
+        <f aca="false">G39*$H$7</f>
+        <v>0.00216</v>
+      </c>
+      <c r="I39" s="31" t="n">
+        <f aca="false">ROUND(H39,3)+0.002</f>
+        <v>0.004</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,8 +5126,8 @@
       <c r="C40" s="5" t="n">
         <v>600</v>
       </c>
-      <c r="D40" s="26" t="n">
-        <f aca="false">SQRT((0.5*B40/5)^2 + ($F$7)^2 + (C40*$H$7)^2)</f>
+      <c r="D40" s="30" t="n">
+        <f aca="false">SQRT((0.5*B40/5)^2 + ($F$7)^2 + (C40*$D$6)^2)</f>
         <v>20.597329924046</v>
       </c>
       <c r="E40" s="10" t="n">
@@ -4719,10 +5135,21 @@
         <v>0.0343288832067433</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>80</v>
+        <v>110</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="25" t="n">
+        <f aca="false">G40*$H$7</f>
+        <v>0.002704</v>
+      </c>
+      <c r="I40" s="31" t="n">
+        <f aca="false">ROUND(H40,3)+0.002</f>
+        <v>0.005</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4732,8 +5159,8 @@
       <c r="C41" s="5" t="n">
         <v>610</v>
       </c>
-      <c r="D41" s="26" t="n">
-        <f aca="false">SQRT((0.5*B41/5)^2 + ($F$7)^2 + (C41*$H$7)^2)</f>
+      <c r="D41" s="30" t="n">
+        <f aca="false">SQRT((0.5*B41/5)^2 + ($F$7)^2 + (C41*$D$6)^2)</f>
         <v>20.8600095877255</v>
       </c>
       <c r="E41" s="10" t="n">
@@ -4741,10 +5168,21 @@
         <v>0.0341967370290582</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="25" t="n">
+        <f aca="false">G41*$H$7</f>
+        <v>0.003204</v>
+      </c>
+      <c r="I41" s="31" t="n">
+        <f aca="false">ROUND(H41,3)+0.002</f>
+        <v>0.005</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4754,8 +5192,8 @@
       <c r="C42" s="5" t="n">
         <v>620</v>
       </c>
-      <c r="D42" s="26" t="n">
-        <f aca="false">SQRT((0.5*B42/5)^2 + ($F$7)^2 + (C42*$H$7)^2)</f>
+      <c r="D42" s="30" t="n">
+        <f aca="false">SQRT((0.5*B42/5)^2 + ($F$7)^2 + (C42*$D$6)^2)</f>
         <v>21.123683390924</v>
       </c>
       <c r="E42" s="10" t="n">
@@ -4763,10 +5201,21 @@
         <v>0.0340704570821355</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" s="25" t="n">
+        <f aca="false">G42*$H$7</f>
+        <v>0.004</v>
+      </c>
+      <c r="I42" s="31" t="n">
+        <f aca="false">ROUND(H42,3)+0.002</f>
+        <v>0.006</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,8 +5225,8 @@
       <c r="C43" s="5" t="n">
         <v>630</v>
       </c>
-      <c r="D43" s="26" t="n">
-        <f aca="false">SQRT((0.5*B43/5)^2 + ($F$7)^2 + (C43*$H$7)^2)</f>
+      <c r="D43" s="30" t="n">
+        <f aca="false">SQRT((0.5*B43/5)^2 + ($F$7)^2 + (C43*$D$6)^2)</f>
         <v>21.3883145666039</v>
       </c>
       <c r="E43" s="10" t="n">
@@ -4785,10 +5234,21 @@
         <v>0.033949705661276</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="25" t="n">
+        <f aca="false">G43*$H$7</f>
+        <v>0.004952</v>
+      </c>
+      <c r="I43" s="31" t="n">
+        <f aca="false">ROUND(H43,3)+0.002</f>
+        <v>0.007</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,8 +5258,8 @@
       <c r="C44" s="5" t="n">
         <v>640</v>
       </c>
-      <c r="D44" s="26" t="n">
-        <f aca="false">SQRT((0.5*B44/5)^2 + ($F$7)^2 + (C44*$H$7)^2)</f>
+      <c r="D44" s="30" t="n">
+        <f aca="false">SQRT((0.5*B44/5)^2 + ($F$7)^2 + (C44*$D$6)^2)</f>
         <v>21.6538680147451</v>
       </c>
       <c r="E44" s="10" t="n">
@@ -4807,10 +5267,21 @@
         <v>0.0338341687730392</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>80</v>
+        <v>114</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="25" t="n">
+        <f aca="false">G44*$H$7</f>
+        <v>0.006176</v>
+      </c>
+      <c r="I44" s="31" t="n">
+        <f aca="false">ROUND(H44,3)+0.002</f>
+        <v>0.008</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,8 +5291,8 @@
       <c r="C45" s="5" t="n">
         <v>660</v>
       </c>
-      <c r="D45" s="26" t="n">
-        <f aca="false">SQRT((0.5*B45/5)^2 + ($F$7)^2 + (C45*$H$7)^2)</f>
+      <c r="D45" s="30" t="n">
+        <f aca="false">SQRT((0.5*B45/5)^2 + ($F$7)^2 + (C45*$D$6)^2)</f>
         <v>28.1476464380239</v>
       </c>
       <c r="E45" s="10" t="n">
@@ -4829,10 +5300,21 @@
         <v>0.0426479491485211</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>80</v>
+        <v>115</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="25" t="n">
+        <f aca="false">G45*$H$7</f>
+        <v>0.009532</v>
+      </c>
+      <c r="I45" s="31" t="n">
+        <f aca="false">ROUND(H45,3)+0.002</f>
+        <v>0.012</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,8 +5324,8 @@
       <c r="C46" s="5" t="n">
         <v>680</v>
       </c>
-      <c r="D46" s="26" t="n">
-        <f aca="false">SQRT((0.5*B46/5)^2 + ($F$7)^2 + (C46*$H$7)^2)</f>
+      <c r="D46" s="30" t="n">
+        <f aca="false">SQRT((0.5*B46/5)^2 + ($F$7)^2 + (C46*$D$6)^2)</f>
         <v>28.5728892483767</v>
       </c>
       <c r="E46" s="10" t="n">
@@ -4851,10 +5333,21 @@
         <v>0.0420189547770245</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="33" t="n">
+        <f aca="false">G46*$H$7</f>
+        <v>0.013656</v>
+      </c>
+      <c r="I46" s="34" t="n">
+        <f aca="false">ROUND(H46,3)+0.002</f>
+        <v>0.016</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,8 +5357,8 @@
       <c r="C47" s="5" t="n">
         <v>700</v>
       </c>
-      <c r="D47" s="26" t="n">
-        <f aca="false">SQRT((0.5*B47/5)^2 + ($F$7)^2 + (C47*$H$7)^2)</f>
+      <c r="D47" s="30" t="n">
+        <f aca="false">SQRT((0.5*B47/5)^2 + ($F$7)^2 + (C47*$D$6)^2)</f>
         <v>29.0043100245464</v>
       </c>
       <c r="E47" s="10" t="n">
@@ -4873,10 +5366,21 @@
         <v>0.0414347286064948</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H47" s="25" t="n">
+        <f aca="false">G47*$H$7</f>
+        <v>0.01908</v>
+      </c>
+      <c r="I47" s="31" t="n">
+        <f aca="false">ROUND(H47,3)+0.02</f>
+        <v>0.039</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,8 +5390,8 @@
       <c r="C48" s="5" t="n">
         <v>720</v>
       </c>
-      <c r="D48" s="26" t="n">
-        <f aca="false">SQRT((0.5*B48/5)^2 + ($F$7)^2 + (C48*$H$7)^2)</f>
+      <c r="D48" s="30" t="n">
+        <f aca="false">SQRT((0.5*B48/5)^2 + ($F$7)^2 + (C48*$D$6)^2)</f>
         <v>29.4416371827383</v>
       </c>
       <c r="E48" s="10" t="n">
@@ -4895,10 +5399,21 @@
         <v>0.0408911627538032</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="25" t="n">
+        <f aca="false">G48*$H$7</f>
+        <v>0.02568</v>
+      </c>
+      <c r="I48" s="31" t="n">
+        <f aca="false">ROUND(H48,3)+0.02</f>
+        <v>0.046</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,8 +5423,8 @@
       <c r="C49" s="5" t="n">
         <v>740</v>
       </c>
-      <c r="D49" s="26" t="n">
-        <f aca="false">SQRT((0.5*B49/5)^2 + ($F$7)^2 + (C49*$H$7)^2)</f>
+      <c r="D49" s="30" t="n">
+        <f aca="false">SQRT((0.5*B49/5)^2 + ($F$7)^2 + (C49*$D$6)^2)</f>
         <v>29.8846114246112</v>
       </c>
       <c r="E49" s="10" t="n">
@@ -4917,10 +5432,21 @@
         <v>0.0403846100332583</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" s="25" t="n">
+        <f aca="false">G49*$H$7</f>
+        <v>0.0314</v>
+      </c>
+      <c r="I49" s="31" t="n">
+        <f aca="false">ROUND(H49,3)+0.02</f>
+        <v>0.051</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,8 +5456,8 @@
       <c r="C50" s="5" t="n">
         <v>760</v>
       </c>
-      <c r="D50" s="26" t="n">
-        <f aca="false">SQRT((0.5*B50/5)^2 + ($F$7)^2 + (C50*$H$7)^2)</f>
+      <c r="D50" s="30" t="n">
+        <f aca="false">SQRT((0.5*B50/5)^2 + ($F$7)^2 + (C50*$D$6)^2)</f>
         <v>30.3329853459893</v>
       </c>
       <c r="E50" s="10" t="n">
@@ -4939,19 +5465,38 @@
         <v>0.0399118228236701</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="25" t="n">
+        <f aca="false">G50*$H$7</f>
+        <v>0.039</v>
+      </c>
+      <c r="I50" s="31" t="n">
+        <f aca="false">ROUND(H50,3)+0.02</f>
+        <v>0.059</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="J3:N3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4970,948 +5515,948 @@
   </sheetPr>
   <dimension ref="B2:E69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="10.16"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>78</v>
+      <c r="E3" s="37" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>39</v>
+      <c r="B4" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>80</v>
+      <c r="D4" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>39</v>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>80</v>
+      <c r="D5" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>45</v>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>80</v>
+      <c r="D6" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>45</v>
+      <c r="B7" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>80</v>
+      <c r="D7" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>45</v>
+      <c r="B8" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>80</v>
+      <c r="D8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>45</v>
+      <c r="B9" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>80</v>
+      <c r="D9" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>45</v>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>80</v>
+      <c r="D10" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>49</v>
+      <c r="B11" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>80</v>
+      <c r="D11" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>49</v>
+      <c r="B12" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>80</v>
+      <c r="D12" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>49</v>
+      <c r="B13" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>80</v>
+      <c r="D13" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>49</v>
+      <c r="B14" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>80</v>
+      <c r="D14" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>49</v>
+      <c r="B15" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>80</v>
+      <c r="D15" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>49</v>
+      <c r="B16" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>80</v>
+      <c r="D16" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>49</v>
+      <c r="B17" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>80</v>
+      <c r="D17" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>49</v>
+      <c r="B18" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>80</v>
+      <c r="D18" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>49</v>
+      <c r="B19" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>80</v>
+      <c r="D19" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>49</v>
+      <c r="B20" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>80</v>
+      <c r="D20" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>49</v>
+      <c r="B21" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>80</v>
+      <c r="D21" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>49</v>
+      <c r="B22" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>80</v>
+      <c r="D22" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>49</v>
+      <c r="B23" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>80</v>
+      <c r="D23" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>49</v>
+      <c r="B24" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>80</v>
+      <c r="D24" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>49</v>
+      <c r="B25" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>80</v>
+      <c r="D25" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>49</v>
+      <c r="B26" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>80</v>
+      <c r="D26" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>131</v>
+      <c r="B27" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>80</v>
+      <c r="D27" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>131</v>
+      <c r="B28" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>80</v>
+      <c r="D28" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>131</v>
+      <c r="B29" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>80</v>
+      <c r="D29" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>131</v>
+      <c r="B30" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>80</v>
+      <c r="D30" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>131</v>
+      <c r="B31" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>80</v>
+      <c r="D31" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>131</v>
+      <c r="B32" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>80</v>
+      <c r="D32" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>131</v>
+      <c r="B33" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>80</v>
+      <c r="D33" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>131</v>
+      <c r="B34" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>80</v>
+      <c r="D34" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>131</v>
+      <c r="B35" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>80</v>
+      <c r="D35" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>131</v>
+      <c r="B36" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>80</v>
+      <c r="D36" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>131</v>
+      <c r="B37" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>80</v>
+      <c r="D37" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>131</v>
+      <c r="B38" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>80</v>
+      <c r="D38" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>131</v>
+      <c r="B39" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>80</v>
+      <c r="D39" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>131</v>
+      <c r="B40" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>80</v>
+      <c r="D40" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>131</v>
+      <c r="B41" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>80</v>
+      <c r="D41" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>131</v>
+      <c r="B42" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>80</v>
+      <c r="D42" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>131</v>
+      <c r="B43" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>80</v>
+      <c r="D43" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
-        <v>131</v>
+      <c r="B44" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>80</v>
+      <c r="D44" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
-        <v>131</v>
+      <c r="B45" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>80</v>
+      <c r="D45" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>131</v>
+      <c r="B46" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>80</v>
+      <c r="D46" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>131</v>
+      <c r="B47" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>80</v>
+      <c r="D47" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>131</v>
+      <c r="B48" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="D48" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>80</v>
+      <c r="D48" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>131</v>
+      <c r="B49" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>80</v>
+      <c r="D49" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
-        <v>131</v>
+      <c r="B50" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>80</v>
+      <c r="D50" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>131</v>
+      <c r="B51" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>80</v>
+      <c r="D51" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>131</v>
+      <c r="B52" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>80</v>
+      <c r="D52" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
-        <v>131</v>
+      <c r="B53" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>80</v>
+      <c r="D53" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
-        <v>131</v>
+      <c r="B54" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>265</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>80</v>
+      <c r="D54" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>131</v>
+      <c r="B55" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>80</v>
+      <c r="D55" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>131</v>
+      <c r="B56" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>80</v>
+      <c r="D56" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
-        <v>131</v>
+      <c r="B57" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>80</v>
+      <c r="D57" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
-        <v>131</v>
+      <c r="B58" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="D58" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>80</v>
+      <c r="D58" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
-        <v>131</v>
+      <c r="B59" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="D59" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>80</v>
+      <c r="D59" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>131</v>
+      <c r="B60" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>80</v>
+      <c r="D60" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
-        <v>131</v>
+      <c r="B61" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="D61" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>80</v>
+      <c r="D61" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>131</v>
+      <c r="B62" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="D62" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>80</v>
+      <c r="D62" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>131</v>
+      <c r="B63" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>310</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>80</v>
+      <c r="D63" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
-        <v>131</v>
+      <c r="B64" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>315</v>
       </c>
-      <c r="D64" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>80</v>
+      <c r="D64" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
-        <v>131</v>
+      <c r="B65" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>320</v>
       </c>
-      <c r="D65" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>80</v>
+      <c r="D65" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>131</v>
+      <c r="B66" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="D66" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>80</v>
+      <c r="D66" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="30" t="n">
+      <c r="B67" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C67" s="39" t="n">
         <v>330</v>
       </c>
-      <c r="D67" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>80</v>
+      <c r="D67" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
-        <v>171</v>
+      <c r="B68" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="D68" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>80</v>
+      <c r="D68" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="28" t="s">
-        <v>173</v>
+      <c r="E69" s="37" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data_lab1.xlsx
+++ b/data_lab1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calibrazione" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="179">
   <si>
     <t xml:space="preserve">Volt da 100 a 800 mV</t>
   </si>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\</t>
   </si>
 </sst>
 </file>
@@ -842,20 +839,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1236,11 +1233,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71858083"/>
-        <c:axId val="36066326"/>
+        <c:axId val="17036913"/>
+        <c:axId val="66974409"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71858083"/>
+        <c:axId val="17036913"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,12 +1279,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36066326"/>
+        <c:crossAx val="66974409"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36066326"/>
+        <c:axId val="66974409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1326,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71858083"/>
+        <c:crossAx val="17036913"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1571,8 +1568,8 @@
   </sheetPr>
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="H67:K107 E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4028,10 +4025,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:N57"/>
+  <dimension ref="B3:XFD107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H67" activeCellId="0" sqref="H67:K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4039,7 +4036,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="25.27"/>
@@ -5493,6 +5490,1154 @@
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>3.64005494464026</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>3.64005494464026</v>
+      </c>
+      <c r="L67" s="0"/>
+      <c r="XFD67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>4.14849370253831</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>4.14849370253831</v>
+      </c>
+      <c r="L68" s="0"/>
+      <c r="XFD68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>6.74536878161602</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>6.74536878161602</v>
+      </c>
+      <c r="L69" s="0"/>
+      <c r="XFD69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>7.82623792124926</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>7.82623792124926</v>
+      </c>
+      <c r="L70" s="0"/>
+      <c r="XFD70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>9.02773504263389</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>9.02773504263389</v>
+      </c>
+      <c r="L71" s="0"/>
+      <c r="XFD71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>10.3077640640442</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>10.3077640640442</v>
+      </c>
+      <c r="L72" s="0"/>
+      <c r="XFD72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>11.1022520238013</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="J73" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>11.1022520238013</v>
+      </c>
+      <c r="L73" s="0"/>
+      <c r="XFD73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>14.293005282305</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>14.293005282305</v>
+      </c>
+      <c r="L74" s="0"/>
+      <c r="XFD74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>14.7271857460956</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="J75" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>14.7271857460956</v>
+      </c>
+      <c r="L75" s="0"/>
+      <c r="XFD75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>15.1726728034318</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>15.1726728034318</v>
+      </c>
+      <c r="L76" s="0"/>
+      <c r="XFD76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>15.6284996080878</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>15.6284996080878</v>
+      </c>
+      <c r="L77" s="0"/>
+      <c r="XFD77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>15.8600126103355</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>15.8600126103355</v>
+      </c>
+      <c r="L78" s="0"/>
+      <c r="XFD78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>16.0937876213153</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>16.0937876213153</v>
+      </c>
+      <c r="L79" s="0"/>
+      <c r="XFD79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>16.3297274931335</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>16.3297274931335</v>
+      </c>
+      <c r="L80" s="0"/>
+      <c r="XFD80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>16.5677397372122</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>16.5677397372122</v>
+      </c>
+      <c r="L81" s="0"/>
+      <c r="XFD81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>16.8077363139716</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>16.8077363139716</v>
+      </c>
+      <c r="L82" s="0"/>
+      <c r="XFD82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>17.0496334271444</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>17.0496334271444</v>
+      </c>
+      <c r="L83" s="0"/>
+      <c r="XFD83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>17.2933513235579</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>17.2933513235579</v>
+      </c>
+      <c r="L84" s="0"/>
+      <c r="XFD84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>17.5388140990205</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>17.5388140990205</v>
+      </c>
+      <c r="L85" s="0"/>
+      <c r="XFD85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>17.7859495107796</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>17.7859495107796</v>
+      </c>
+      <c r="L86" s="0"/>
+      <c r="XFD86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>18.0346887968714</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>18.0346887968714</v>
+      </c>
+      <c r="L87" s="0"/>
+      <c r="XFD87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>18.2849665025671</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>18.2849665025671</v>
+      </c>
+      <c r="L88" s="0"/>
+      <c r="XFD88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>18.5367203140146</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>18.5367203140146</v>
+      </c>
+      <c r="L89" s="0"/>
+      <c r="XFD89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>18.7898908990978</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>18.7898908990978</v>
+      </c>
+      <c r="L90" s="0"/>
+      <c r="XFD90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>19.0444217554643</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>19.0444217554643</v>
+      </c>
+      <c r="L91" s="0"/>
+      <c r="XFD91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>19.3002590656188</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>19.3002590656188</v>
+      </c>
+      <c r="L92" s="0"/>
+      <c r="XFD92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>19.5573515589407</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>19.5573515589407</v>
+      </c>
+      <c r="L93" s="0"/>
+      <c r="XFD93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>19.8156503804442</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>19.8156503804442</v>
+      </c>
+      <c r="L94" s="0"/>
+      <c r="XFD94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>20.0751089660804</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>20.0751089660804</v>
+      </c>
+      <c r="L95" s="0"/>
+      <c r="XFD95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>20.3356829243574</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>20.3356829243574</v>
+      </c>
+      <c r="L96" s="0"/>
+      <c r="XFD96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>20.597329924046</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>20.597329924046</v>
+      </c>
+      <c r="L97" s="0"/>
+      <c r="XFD97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>20.8600095877255</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>20.8600095877255</v>
+      </c>
+      <c r="L98" s="0"/>
+      <c r="XFD98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>21.123683390924</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>21.123683390924</v>
+      </c>
+      <c r="L99" s="0"/>
+      <c r="XFD99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>21.3883145666039</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>21.3883145666039</v>
+      </c>
+      <c r="L100" s="0"/>
+      <c r="XFD100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>1.544</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>21.6538680147451</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>1.544</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>21.6538680147451</v>
+      </c>
+      <c r="L101" s="0"/>
+      <c r="XFD101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>2.383</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>28.1476464380239</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>2.383</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>28.1476464380239</v>
+      </c>
+      <c r="L102" s="0"/>
+      <c r="XFD102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>3.414</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>28.5728892483767</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>3.414</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>28.5728892483767</v>
+      </c>
+      <c r="L103" s="0"/>
+      <c r="XFD103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>29.0043100245464</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>29.0043100245464</v>
+      </c>
+      <c r="L104" s="0"/>
+      <c r="XFD104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>29.4416371827383</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>29.4416371827383</v>
+      </c>
+      <c r="L105" s="0"/>
+      <c r="XFD105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>29.8846114246112</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>29.8846114246112</v>
+      </c>
+      <c r="L106" s="0"/>
+      <c r="XFD106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>30.3329853459893</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="K107" s="1" t="n">
+        <v>30.3329853459893</v>
+      </c>
+      <c r="L107" s="0"/>
+      <c r="XFD107" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5513,953 +6658,3261 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E69"/>
+  <dimension ref="B2:K145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I129" activeCellId="1" sqref="H67:K107 I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="10.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="21.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="17.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="25.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="10.55"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="37" t="s">
+      <c r="J2" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="1" t="n">
+        <f aca="false">0.5*(5/5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="27" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="37" t="s">
+      <c r="C7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C8" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D8" s="30" t="n">
+        <f aca="false">SQRT((0.5*B8/5)^2 + ($E$5)^2 + (C8*$G$5)^2)</f>
+        <v>0.92736184954957</v>
+      </c>
+      <c r="E8" s="37" t="n">
+        <f aca="false">D8/C8</f>
+        <v>0.0463680924774785</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+      <c r="G8" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <f aca="false">G8*$K$5</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="38" t="n">
+        <f aca="false">H8+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C9" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D9" s="30" t="n">
+        <f aca="false">SQRT((0.5*B9/5)^2 + ($E$5)^2 + (C9*$G$5)^2)</f>
+        <v>1.03077640640442</v>
+      </c>
+      <c r="E9" s="37" t="n">
+        <f aca="false">D9/C9</f>
+        <v>0.0412310562561766</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="G9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">G9*$K$5</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="38" t="n">
+        <f aca="false">H9+0.002</f>
+        <v>0.002</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C10" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D10" s="30" t="n">
+        <f aca="false">SQRT((0.5*B10/5)^2 + ($E$5)^2 + (C10*$G$5)^2)</f>
+        <v>1.5337861650178</v>
+      </c>
+      <c r="E10" s="37" t="n">
+        <f aca="false">D10/C10</f>
+        <v>0.0438224618576513</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="G10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <f aca="false">G10*$K$5</f>
+        <v>4E-006</v>
+      </c>
+      <c r="I10" s="38" t="n">
+        <f aca="false">H10+0.002</f>
+        <v>0.002004</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C11" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D11" s="30" t="n">
+        <f aca="false">SQRT((0.5*B11/5)^2 + ($E$5)^2 + (C11*$G$5)^2)</f>
+        <v>1.75285481429581</v>
+      </c>
+      <c r="E11" s="37" t="n">
+        <f aca="false">D11/C11</f>
+        <v>0.0389523292065736</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+      <c r="G11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">G11*$K$5</f>
+        <v>8E-006</v>
+      </c>
+      <c r="I11" s="38" t="n">
+        <f aca="false">H11+0.002</f>
+        <v>0.002008</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C12" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D12" s="30" t="n">
+        <f aca="false">SQRT((0.5*B12/5)^2 + ($E$5)^2 + (C12*$G$5)^2)</f>
+        <v>1.96834956245074</v>
+      </c>
+      <c r="E12" s="37" t="n">
+        <f aca="false">D12/C12</f>
+        <v>0.0364509178231618</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+      <c r="G12" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">G12*$K$5</f>
+        <v>1.2E-005</v>
+      </c>
+      <c r="I12" s="38" t="n">
+        <f aca="false">H12+0.002</f>
+        <v>0.002012</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C13" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D13" s="30" t="n">
+        <f aca="false">SQRT((0.5*B13/5)^2 + ($E$5)^2 + (C13*$G$5)^2)</f>
+        <v>2.09353767580142</v>
+      </c>
+      <c r="E13" s="37" t="n">
+        <f aca="false">D13/C13</f>
+        <v>0.035483689420363</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="G13" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">G13*$K$5</f>
+        <v>1.6E-005</v>
+      </c>
+      <c r="I13" s="38" t="n">
+        <f aca="false">H13+0.002</f>
+        <v>0.002016</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C14" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D14" s="30" t="n">
+        <f aca="false">SQRT((0.5*B14/5)^2 + ($E$5)^2 + (C14*$G$5)^2)</f>
+        <v>2.2477766792989</v>
+      </c>
+      <c r="E14" s="37" t="n">
+        <f aca="false">D14/C14</f>
+        <v>0.0345811796815216</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="G14" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">G14*$K$5</f>
+        <v>2E-005</v>
+      </c>
+      <c r="I14" s="38" t="n">
+        <f aca="false">H14+0.002</f>
+        <v>0.00202</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C15" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D15" s="30" t="n">
+        <f aca="false">SQRT((0.5*B15/5)^2 + ($E$5)^2 + (C15*$G$5)^2)</f>
+        <v>2.94278779391243</v>
+      </c>
+      <c r="E15" s="37" t="n">
+        <f aca="false">D15/C15</f>
+        <v>0.0420398256273205</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+      <c r="G15" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">G15*$K$5</f>
+        <v>2.4E-005</v>
+      </c>
+      <c r="I15" s="38" t="n">
+        <f aca="false">H15+0.002</f>
+        <v>0.002024</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C16" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D16" s="30" t="n">
+        <f aca="false">SQRT((0.5*B16/5)^2 + ($E$5)^2 + (C16*$G$5)^2)</f>
+        <v>2.9859001992699</v>
+      </c>
+      <c r="E16" s="37" t="n">
+        <f aca="false">D16/C16</f>
+        <v>0.0414708361009708</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+      <c r="G16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">G16*$K$5</f>
+        <v>2.8E-005</v>
+      </c>
+      <c r="I16" s="38" t="n">
+        <f aca="false">H16+0.002</f>
+        <v>0.002028</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C17" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D17" s="30" t="n">
+        <f aca="false">SQRT((0.5*B17/5)^2 + ($E$5)^2 + (C17*$G$5)^2)</f>
+        <v>3.07382497875204</v>
+      </c>
+      <c r="E17" s="37" t="n">
+        <f aca="false">D17/C17</f>
+        <v>0.0404450655098953</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+      <c r="G17" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">G17*$K$5</f>
+        <v>3.2E-005</v>
+      </c>
+      <c r="I17" s="38" t="n">
+        <f aca="false">H17+0.002</f>
+        <v>0.002032</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C18" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D18" s="30" t="n">
+        <f aca="false">SQRT((0.5*B18/5)^2 + ($E$5)^2 + (C18*$G$5)^2)</f>
+        <v>3.16385840391128</v>
+      </c>
+      <c r="E18" s="37" t="n">
+        <f aca="false">D18/C18</f>
+        <v>0.0395482300488909</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+      <c r="G18" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">G18*$K$5</f>
+        <v>3.6E-005</v>
+      </c>
+      <c r="I18" s="38" t="n">
+        <f aca="false">H18+0.002</f>
+        <v>0.002036</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="D15" s="36" t="s">
+      <c r="C19" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D19" s="30" t="n">
+        <f aca="false">SQRT((0.5*B19/5)^2 + ($E$5)^2 + (C19*$G$5)^2)</f>
+        <v>3.25582554815211</v>
+      </c>
+      <c r="E19" s="37" t="n">
+        <f aca="false">D19/C19</f>
+        <v>0.0387598279541918</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+      <c r="G19" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">G19*$K$5</f>
+        <v>4.4E-005</v>
+      </c>
+      <c r="I19" s="38" t="n">
+        <f aca="false">H19+0.002</f>
+        <v>0.002044</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C20" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D20" s="30" t="n">
+        <f aca="false">SQRT((0.5*B20/5)^2 + ($E$5)^2 + (C20*$G$5)^2)</f>
+        <v>3.34956713621328</v>
+      </c>
+      <c r="E20" s="37" t="n">
+        <f aca="false">D20/C20</f>
+        <v>0.0380632629115145</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+      <c r="G20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">G20*$K$5</f>
+        <v>4.8E-005</v>
+      </c>
+      <c r="I20" s="38" t="n">
+        <f aca="false">H20+0.002</f>
+        <v>0.002048</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C21" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D21" s="30" t="n">
+        <f aca="false">SQRT((0.5*B21/5)^2 + ($E$5)^2 + (C21*$G$5)^2)</f>
+        <v>3.44493831584834</v>
+      </c>
+      <c r="E21" s="37" t="n">
+        <f aca="false">D21/C21</f>
+        <v>0.0374449816940037</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+      <c r="G21" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">G21*$K$5</f>
+        <v>5.6E-005</v>
+      </c>
+      <c r="I21" s="38" t="n">
+        <f aca="false">H21+0.002</f>
+        <v>0.002056</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C22" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D22" s="30" t="n">
+        <f aca="false">SQRT((0.5*B22/5)^2 + ($E$5)^2 + (C22*$G$5)^2)</f>
+        <v>3.54180744818235</v>
+      </c>
+      <c r="E22" s="37" t="n">
+        <f aca="false">D22/C22</f>
+        <v>0.0368938275852329</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+      <c r="G22" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <f aca="false">G22*$K$5</f>
+        <v>6.4E-005</v>
+      </c>
+      <c r="I22" s="38" t="n">
+        <f aca="false">H22+0.002</f>
+        <v>0.002064</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C23" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D23" s="30" t="n">
+        <f aca="false">SQRT((0.5*B23/5)^2 + ($E$5)^2 + (C23*$G$5)^2)</f>
+        <v>3.64005494464026</v>
+      </c>
+      <c r="E23" s="37" t="n">
+        <f aca="false">D23/C23</f>
+        <v>0.0364005494464026</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+      <c r="G23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <f aca="false">G23*$K$5</f>
+        <v>7.2E-005</v>
+      </c>
+      <c r="I23" s="38" t="n">
+        <f aca="false">H23+0.002</f>
+        <v>0.002072</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C24" s="5" t="n">
         <v>104</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D24" s="30" t="n">
+        <f aca="false">SQRT((0.5*B24/5)^2 + ($E$5)^2 + (C24*$G$5)^2)</f>
+        <v>3.73957216804276</v>
+      </c>
+      <c r="E24" s="37" t="n">
+        <f aca="false">D24/C24</f>
+        <v>0.0359574246927188</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+      <c r="G24" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">G24*$K$5</f>
+        <v>8E-005</v>
+      </c>
+      <c r="I24" s="38" t="n">
+        <f aca="false">H24+0.002</f>
+        <v>0.00208</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C25" s="5" t="n">
         <v>108</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D25" s="30" t="n">
+        <f aca="false">SQRT((0.5*B25/5)^2 + ($E$5)^2 + (C25*$G$5)^2)</f>
+        <v>3.84026040783695</v>
+      </c>
+      <c r="E25" s="37" t="n">
+        <f aca="false">D25/C25</f>
+        <v>0.035557966739231</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+      <c r="G25" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <f aca="false">G25*$K$5</f>
+        <v>9.2E-005</v>
+      </c>
+      <c r="I25" s="38" t="n">
+        <f aca="false">H25+0.002</f>
+        <v>0.002092</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C26" s="5" t="n">
         <v>112</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D26" s="30" t="n">
+        <f aca="false">SQRT((0.5*B26/5)^2 + ($E$5)^2 + (C26*$G$5)^2)</f>
+        <v>3.94202993392998</v>
+      </c>
+      <c r="E26" s="37" t="n">
+        <f aca="false">D26/C26</f>
+        <v>0.0351966958386605</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+      <c r="G26" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <f aca="false">G26*$K$5</f>
+        <v>0.000108</v>
+      </c>
+      <c r="I26" s="38" t="n">
+        <f aca="false">H26+0.002</f>
+        <v>0.002108</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C27" s="5" t="n">
         <v>116</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D27" s="30" t="n">
+        <f aca="false">SQRT((0.5*B27/5)^2 + ($E$5)^2 + (C27*$G$5)^2)</f>
+        <v>4.04479912974674</v>
+      </c>
+      <c r="E27" s="37" t="n">
+        <f aca="false">D27/C27</f>
+        <v>0.0348689580150581</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+      <c r="G27" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <f aca="false">G27*$K$5</f>
+        <v>0.00012</v>
+      </c>
+      <c r="I27" s="38" t="n">
+        <f aca="false">H27+0.002</f>
+        <v>0.00212</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C28" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D28" s="30" t="n">
+        <f aca="false">SQRT((0.5*B28/5)^2 + ($E$5)^2 + (C28*$G$5)^2)</f>
+        <v>4.14849370253831</v>
+      </c>
+      <c r="E28" s="37" t="n">
+        <f aca="false">D28/C28</f>
+        <v>0.0345707808544859</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
+      <c r="G28" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">G28*$K$5</f>
+        <v>0.000136</v>
+      </c>
+      <c r="I28" s="38" t="n">
+        <f aca="false">H28+0.002</f>
+        <v>0.002136</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C29" s="5" t="n">
         <v>124</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D29" s="30" t="n">
+        <f aca="false">SQRT((0.5*B29/5)^2 + ($E$5)^2 + (C29*$G$5)^2)</f>
+        <v>4.2530459673039</v>
+      </c>
+      <c r="E29" s="37" t="n">
+        <f aca="false">D29/C29</f>
+        <v>0.0342987578008379</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="n">
+      <c r="G29" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">G29*$K$5</f>
+        <v>0.000156</v>
+      </c>
+      <c r="I29" s="38" t="n">
+        <f aca="false">H29+0.002</f>
+        <v>0.002156</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C30" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D30" s="30" t="n">
+        <f aca="false">SQRT((0.5*B30/5)^2 + ($E$5)^2 + (C30*$G$5)^2)</f>
+        <v>4.35839419970245</v>
+      </c>
+      <c r="E30" s="37" t="n">
+        <f aca="false">D30/C30</f>
+        <v>0.0340499546851754</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="n">
+      <c r="G30" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <f aca="false">G30*$K$5</f>
+        <v>0.000172</v>
+      </c>
+      <c r="I30" s="38" t="n">
+        <f aca="false">H30+0.002</f>
+        <v>0.002172</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C31" s="5" t="n">
         <v>130</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D31" s="30" t="n">
+        <f aca="false">SQRT((0.5*B31/5)^2 + ($E$5)^2 + (C31*$G$5)^2)</f>
+        <v>6.3608175575157</v>
+      </c>
+      <c r="E31" s="37" t="n">
+        <f aca="false">D31/C31</f>
+        <v>0.0489293658270438</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="n">
+      <c r="G31" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <f aca="false">G31*$K$5</f>
+        <v>0.00018</v>
+      </c>
+      <c r="I31" s="38" t="n">
+        <f aca="false">H31+0.002</f>
+        <v>0.00218</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C32" s="5" t="n">
         <v>135</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D32" s="30" t="n">
+        <f aca="false">SQRT((0.5*B32/5)^2 + ($E$5)^2 + (C32*$G$5)^2)</f>
+        <v>6.45387480510739</v>
+      </c>
+      <c r="E32" s="37" t="n">
+        <f aca="false">D32/C32</f>
+        <v>0.0478064800378326</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="n">
+      <c r="G32" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <f aca="false">G32*$K$5</f>
+        <v>0.000212</v>
+      </c>
+      <c r="I32" s="38" t="n">
+        <f aca="false">H32+0.002</f>
+        <v>0.002212</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C33" s="5" t="n">
         <v>140</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D33" s="30" t="n">
+        <f aca="false">SQRT((0.5*B33/5)^2 + ($E$5)^2 + (C33*$G$5)^2)</f>
+        <v>6.54904573201318</v>
+      </c>
+      <c r="E33" s="37" t="n">
+        <f aca="false">D33/C33</f>
+        <v>0.0467788980858084</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="n">
+      <c r="G33" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <f aca="false">G33*$K$5</f>
+        <v>0.000232</v>
+      </c>
+      <c r="I33" s="38" t="n">
+        <f aca="false">H33+0.002</f>
+        <v>0.002232</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C34" s="5" t="n">
         <v>145</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D34" s="30" t="n">
+        <f aca="false">SQRT((0.5*B34/5)^2 + ($E$5)^2 + (C34*$G$5)^2)</f>
+        <v>6.64623953826523</v>
+      </c>
+      <c r="E34" s="37" t="n">
+        <f aca="false">D34/C34</f>
+        <v>0.0458361347466568</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="n">
+      <c r="G34" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <f aca="false">G34*$K$5</f>
+        <v>0.000268</v>
+      </c>
+      <c r="I34" s="38" t="n">
+        <f aca="false">H34+0.002</f>
+        <v>0.002268</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C35" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D35" s="30" t="n">
+        <f aca="false">SQRT((0.5*B35/5)^2 + ($E$5)^2 + (C35*$G$5)^2)</f>
+        <v>6.74536878161602</v>
+      </c>
+      <c r="E35" s="37" t="n">
+        <f aca="false">D35/C35</f>
+        <v>0.0449691252107735</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="n">
+      <c r="G35" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">G35*$K$5</f>
+        <v>0.000312</v>
+      </c>
+      <c r="I35" s="38" t="n">
+        <f aca="false">H35+0.002</f>
+        <v>0.002312</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C36" s="5" t="n">
         <v>155</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D36" s="30" t="n">
+        <f aca="false">SQRT((0.5*B36/5)^2 + ($E$5)^2 + (C36*$G$5)^2)</f>
+        <v>6.84634939219435</v>
+      </c>
+      <c r="E36" s="37" t="n">
+        <f aca="false">D36/C36</f>
+        <v>0.0441699960786733</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="n">
+      <c r="G36" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">G36*$K$5</f>
+        <v>0.000352</v>
+      </c>
+      <c r="I36" s="38" t="n">
+        <f aca="false">H36+0.002</f>
+        <v>0.002352</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C37" s="5" t="n">
         <v>160</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D37" s="30" t="n">
+        <f aca="false">SQRT((0.5*B37/5)^2 + ($E$5)^2 + (C37*$G$5)^2)</f>
+        <v>6.94910066123668</v>
+      </c>
+      <c r="E37" s="37" t="n">
+        <f aca="false">D37/C37</f>
+        <v>0.0434318791327292</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="n">
+      <c r="G37" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">G37*$K$5</f>
+        <v>0.0004</v>
+      </c>
+      <c r="I37" s="38" t="n">
+        <f aca="false">H37+0.002</f>
+        <v>0.0024</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C38" s="5" t="n">
         <v>165</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D38" s="30" t="n">
+        <f aca="false">SQRT((0.5*B38/5)^2 + ($E$5)^2 + (C38*$G$5)^2)</f>
+        <v>7.05354520790786</v>
+      </c>
+      <c r="E38" s="37" t="n">
+        <f aca="false">D38/C38</f>
+        <v>0.0427487588358052</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="n">
+      <c r="G38" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <f aca="false">G38*$K$5</f>
+        <v>0.000456</v>
+      </c>
+      <c r="I38" s="38" t="n">
+        <f aca="false">H38+0.002</f>
+        <v>0.002456</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C39" s="5" t="n">
         <v>170</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D39" s="30" t="n">
+        <f aca="false">SQRT((0.5*B39/5)^2 + ($E$5)^2 + (C39*$G$5)^2)</f>
+        <v>7.1596089278675</v>
+      </c>
+      <c r="E39" s="37" t="n">
+        <f aca="false">D39/C39</f>
+        <v>0.0421153466345147</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="n">
+      <c r="G39" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <f aca="false">G39*$K$5</f>
+        <v>0.00052</v>
+      </c>
+      <c r="I39" s="38" t="n">
+        <f aca="false">H39+0.002</f>
+        <v>0.00252</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C40" s="5" t="n">
         <v>175</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D40" s="30" t="n">
+        <f aca="false">SQRT((0.5*B40/5)^2 + ($E$5)^2 + (C40*$G$5)^2)</f>
+        <v>7.26722092687432</v>
+      </c>
+      <c r="E40" s="37" t="n">
+        <f aca="false">D40/C40</f>
+        <v>0.0415269767249961</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="n">
+      <c r="G40" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <f aca="false">G40*$K$5</f>
+        <v>0.000576</v>
+      </c>
+      <c r="I40" s="38" t="n">
+        <f aca="false">H40+0.002</f>
+        <v>0.002576</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C41" s="5" t="n">
         <v>180</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D41" s="30" t="n">
+        <f aca="false">SQRT((0.5*B41/5)^2 + ($E$5)^2 + (C41*$G$5)^2)</f>
+        <v>7.37631344236401</v>
+      </c>
+      <c r="E41" s="37" t="n">
+        <f aca="false">D41/C41</f>
+        <v>0.0409795191242445</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="n">
+      <c r="G41" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <f aca="false">G41*$K$5</f>
+        <v>0.000656</v>
+      </c>
+      <c r="I41" s="38" t="n">
+        <f aca="false">H41+0.002</f>
+        <v>0.002656</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C42" s="5" t="n">
         <v>185</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D42" s="30" t="n">
+        <f aca="false">SQRT((0.5*B42/5)^2 + ($E$5)^2 + (C42*$G$5)^2)</f>
+        <v>7.48682175559162</v>
+      </c>
+      <c r="E42" s="37" t="n">
+        <f aca="false">D42/C42</f>
+        <v>0.0404693067869817</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="n">
+      <c r="G42" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <f aca="false">G42*$K$5</f>
+        <v>0.000736</v>
+      </c>
+      <c r="I42" s="38" t="n">
+        <f aca="false">H42+0.002</f>
+        <v>0.002736</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C43" s="5" t="n">
         <v>190</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D43" s="30" t="n">
+        <f aca="false">SQRT((0.5*B43/5)^2 + ($E$5)^2 + (C43*$G$5)^2)</f>
+        <v>7.59868409660515</v>
+      </c>
+      <c r="E43" s="37" t="n">
+        <f aca="false">D43/C43</f>
+        <v>0.0399930741926587</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="n">
+      <c r="G43" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <f aca="false">G43*$K$5</f>
+        <v>0.000816</v>
+      </c>
+      <c r="I43" s="38" t="n">
+        <f aca="false">H43+0.002</f>
+        <v>0.002816</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C44" s="5" t="n">
         <v>195</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D44" s="30" t="n">
+        <f aca="false">SQRT((0.5*B44/5)^2 + ($E$5)^2 + (C44*$G$5)^2)</f>
+        <v>7.71184154401528</v>
+      </c>
+      <c r="E44" s="37" t="n">
+        <f aca="false">D44/C44</f>
+        <v>0.0395479053539245</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="n">
+      <c r="G44" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <f aca="false">G44*$K$5</f>
+        <v>0.000932</v>
+      </c>
+      <c r="I44" s="38" t="n">
+        <f aca="false">H44+0.002</f>
+        <v>0.002932</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C45" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D45" s="30" t="n">
+        <f aca="false">SQRT((0.5*B45/5)^2 + ($E$5)^2 + (C45*$G$5)^2)</f>
+        <v>7.82623792124926</v>
+      </c>
+      <c r="E45" s="37" t="n">
+        <f aca="false">D45/C45</f>
+        <v>0.0391311896062463</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="n">
+      <c r="G45" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <f aca="false">G45*$K$5</f>
+        <v>0.000996</v>
+      </c>
+      <c r="I45" s="38" t="n">
+        <f aca="false">H45+0.002</f>
+        <v>0.002996</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C46" s="5" t="n">
         <v>205</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D46" s="30" t="n">
+        <f aca="false">SQRT((0.5*B46/5)^2 + ($E$5)^2 + (C46*$G$5)^2)</f>
+        <v>7.9418196907258</v>
+      </c>
+      <c r="E46" s="37" t="n">
+        <f aca="false">D46/C46</f>
+        <v>0.038740583857199</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E42" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="n">
+      <c r="G46" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <f aca="false">G46*$K$5</f>
+        <v>0.00112</v>
+      </c>
+      <c r="I46" s="38" t="n">
+        <f aca="false">H46+0.002</f>
+        <v>0.00312</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C47" s="5" t="n">
         <v>210</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D47" s="30" t="n">
+        <f aca="false">SQRT((0.5*B47/5)^2 + ($E$5)^2 + (C47*$G$5)^2)</f>
+        <v>8.05853584716231</v>
+      </c>
+      <c r="E47" s="37" t="n">
+        <f aca="false">D47/C47</f>
+        <v>0.0383739802245824</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="n">
+      <c r="G47" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <f aca="false">G47*$K$5</f>
+        <v>0.001264</v>
+      </c>
+      <c r="I47" s="38" t="n">
+        <f aca="false">H47+0.002</f>
+        <v>0.003264</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C48" s="5" t="n">
         <v>215</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D48" s="30" t="n">
+        <f aca="false">SQRT((0.5*B48/5)^2 + ($E$5)^2 + (C48*$G$5)^2)</f>
+        <v>8.17633781102518</v>
+      </c>
+      <c r="E48" s="37" t="n">
+        <f aca="false">D48/C48</f>
+        <v>0.0380294781908148</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="n">
+      <c r="G48" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <f aca="false">G48*$K$5</f>
+        <v>0.001404</v>
+      </c>
+      <c r="I48" s="38" t="n">
+        <f aca="false">H48+0.002</f>
+        <v>0.003404</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C49" s="5" t="n">
         <v>220</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D49" s="30" t="n">
+        <f aca="false">SQRT((0.5*B49/5)^2 + ($E$5)^2 + (C49*$G$5)^2)</f>
+        <v>8.2951793229562</v>
+      </c>
+      <c r="E49" s="37" t="n">
+        <f aca="false">D49/C49</f>
+        <v>0.0377053605588918</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="n">
+      <c r="G49" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <f aca="false">G49*$K$5</f>
+        <v>0.00156</v>
+      </c>
+      <c r="I49" s="38" t="n">
+        <f aca="false">H49+0.002</f>
+        <v>0.00356</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C50" s="5" t="n">
         <v>225</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D50" s="30" t="n">
+        <f aca="false">SQRT((0.5*B50/5)^2 + ($E$5)^2 + (C50*$G$5)^2)</f>
+        <v>8.41501633985342</v>
+      </c>
+      <c r="E50" s="37" t="n">
+        <f aca="false">D50/C50</f>
+        <v>0.0374000726215707</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="n">
+      <c r="G50" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <f aca="false">G50*$K$5</f>
+        <v>0.001712</v>
+      </c>
+      <c r="I50" s="38" t="n">
+        <f aca="false">H50+0.002</f>
+        <v>0.003712</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C51" s="5" t="n">
         <v>230</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D51" s="30" t="n">
+        <f aca="false">SQRT((0.5*B51/5)^2 + ($E$5)^2 + (C51*$G$5)^2)</f>
+        <v>8.53580693314932</v>
+      </c>
+      <c r="E51" s="37" t="n">
+        <f aca="false">D51/C51</f>
+        <v>0.037112204057171</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E47" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="n">
+      <c r="G51" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <f aca="false">G51*$K$5</f>
+        <v>0.00192</v>
+      </c>
+      <c r="I51" s="38" t="n">
+        <f aca="false">H51+0.002</f>
+        <v>0.00392</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C52" s="5" t="n">
         <v>235</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D52" s="30" t="n">
+        <f aca="false">SQRT((0.5*B52/5)^2 + ($E$5)^2 + (C52*$G$5)^2)</f>
+        <v>8.65751118971267</v>
+      </c>
+      <c r="E52" s="37" t="n">
+        <f aca="false">D52/C52</f>
+        <v>0.0368404731477135</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E48" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="n">
+      <c r="G52" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <f aca="false">G52*$K$5</f>
+        <v>0.002136</v>
+      </c>
+      <c r="I52" s="38" t="n">
+        <f aca="false">H52+0.002</f>
+        <v>0.004136</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C53" s="5" t="n">
         <v>240</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D53" s="30" t="n">
+        <f aca="false">SQRT((0.5*B53/5)^2 + ($E$5)^2 + (C53*$G$5)^2)</f>
+        <v>8.78009111570034</v>
+      </c>
+      <c r="E53" s="37" t="n">
+        <f aca="false">D53/C53</f>
+        <v>0.0365837129820847</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="n">
+      <c r="G53" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <f aca="false">G53*$K$5</f>
+        <v>0.002364</v>
+      </c>
+      <c r="I53" s="38" t="n">
+        <f aca="false">H53+0.002</f>
+        <v>0.004364</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C54" s="5" t="n">
         <v>245</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D54" s="30" t="n">
+        <f aca="false">SQRT((0.5*B54/5)^2 + ($E$5)^2 + (C54*$G$5)^2)</f>
+        <v>8.9035105436002</v>
+      </c>
+      <c r="E54" s="37" t="n">
+        <f aca="false">D54/C54</f>
+        <v>0.0363408593616335</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="n">
+      <c r="G54" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <f aca="false">G54*$K$5</f>
+        <v>0.00258</v>
+      </c>
+      <c r="I54" s="38" t="n">
+        <f aca="false">H54+0.002</f>
+        <v>0.00458</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C55" s="5" t="n">
         <v>250</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D55" s="30" t="n">
+        <f aca="false">SQRT((0.5*B55/5)^2 + ($E$5)^2 + (C55*$G$5)^2)</f>
+        <v>9.02773504263389</v>
+      </c>
+      <c r="E55" s="37" t="n">
+        <f aca="false">D55/C55</f>
+        <v>0.0361109401705356</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="n">
+      <c r="G55" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <f aca="false">G55*$K$5</f>
+        <v>0.00288</v>
+      </c>
+      <c r="I55" s="38" t="n">
+        <f aca="false">H55+0.002</f>
+        <v>0.00488</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C56" s="5" t="n">
         <v>255</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D56" s="30" t="n">
+        <f aca="false">SQRT((0.5*B56/5)^2 + ($E$5)^2 + (C56*$G$5)^2)</f>
+        <v>9.1527318326279</v>
+      </c>
+      <c r="E56" s="37" t="n">
+        <f aca="false">D56/C56</f>
+        <v>0.0358930660103055</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="n">
+      <c r="G56" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <f aca="false">G56*$K$5</f>
+        <v>0.003212</v>
+      </c>
+      <c r="I56" s="38" t="n">
+        <f aca="false">H56+0.002</f>
+        <v>0.005212</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C57" s="5" t="n">
         <v>260</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D57" s="30" t="n">
+        <f aca="false">SQRT((0.5*B57/5)^2 + ($E$5)^2 + (C57*$G$5)^2)</f>
+        <v>9.2784697014109</v>
+      </c>
+      <c r="E57" s="37" t="n">
+        <f aca="false">D57/C57</f>
+        <v>0.0356864219285035</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E53" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="n">
+      <c r="G57" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <f aca="false">G57*$K$5</f>
+        <v>0.003532</v>
+      </c>
+      <c r="I57" s="38" t="n">
+        <f aca="false">H57+0.002</f>
+        <v>0.005532</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C58" s="5" t="n">
         <v>265</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D58" s="30" t="n">
+        <f aca="false">SQRT((0.5*B58/5)^2 + ($E$5)^2 + (C58*$G$5)^2)</f>
+        <v>9.40491892575369</v>
+      </c>
+      <c r="E58" s="37" t="n">
+        <f aca="false">D58/C58</f>
+        <v>0.0354902600971837</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E54" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="n">
+      <c r="G58" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <f aca="false">G58*$K$5</f>
+        <v>0.0039</v>
+      </c>
+      <c r="I58" s="38" t="n">
+        <f aca="false">H58+0.002</f>
+        <v>0.0059</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C59" s="5" t="n">
         <v>270</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D59" s="30" t="n">
+        <f aca="false">SQRT((0.5*B59/5)^2 + ($E$5)^2 + (C59*$G$5)^2)</f>
+        <v>9.53205119583398</v>
+      </c>
+      <c r="E59" s="37" t="n">
+        <f aca="false">D59/C59</f>
+        <v>0.0353038933179036</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E55" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="n">
+      <c r="G59" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <f aca="false">G59*$K$5</f>
+        <v>0.004328</v>
+      </c>
+      <c r="I59" s="38" t="n">
+        <f aca="false">H59+0.002</f>
+        <v>0.006328</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C60" s="5" t="n">
         <v>275</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D60" s="30" t="n">
+        <f aca="false">SQRT((0.5*B60/5)^2 + ($E$5)^2 + (C60*$G$5)^2)</f>
+        <v>9.65983954318083</v>
+      </c>
+      <c r="E60" s="37" t="n">
+        <f aca="false">D60/C60</f>
+        <v>0.0351266892479303</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E56" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="n">
+      <c r="G60" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <f aca="false">G60*$K$5</f>
+        <v>0.004788</v>
+      </c>
+      <c r="I60" s="38" t="n">
+        <f aca="false">H60+0.002</f>
+        <v>0.006788</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C61" s="5" t="n">
         <v>280</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D61" s="30" t="n">
+        <f aca="false">SQRT((0.5*B61/5)^2 + ($E$5)^2 + (C61*$G$5)^2)</f>
+        <v>9.78825827203185</v>
+      </c>
+      <c r="E61" s="37" t="n">
+        <f aca="false">D61/C61</f>
+        <v>0.0349580652572566</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="n">
+      <c r="G61" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <f aca="false">G61*$K$5</f>
+        <v>0.005264</v>
+      </c>
+      <c r="I61" s="38" t="n">
+        <f aca="false">H61+0.002</f>
+        <v>0.007264</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C62" s="5" t="n">
         <v>285</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D62" s="30" t="n">
+        <f aca="false">SQRT((0.5*B62/5)^2 + ($E$5)^2 + (C62*$G$5)^2)</f>
+        <v>9.91728289401891</v>
+      </c>
+      <c r="E62" s="37" t="n">
+        <f aca="false">D62/C62</f>
+        <v>0.0347974838386628</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E58" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="n">
+      <c r="G62" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <f aca="false">G62*$K$5</f>
+        <v>0.00574</v>
+      </c>
+      <c r="I62" s="38" t="n">
+        <f aca="false">H62+0.002</f>
+        <v>0.00774</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C63" s="5" t="n">
         <v>290</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D63" s="30" t="n">
+        <f aca="false">SQRT((0.5*B63/5)^2 + ($E$5)^2 + (C63*$G$5)^2)</f>
+        <v>10.0468900660851</v>
+      </c>
+      <c r="E63" s="37" t="n">
+        <f aca="false">D63/C63</f>
+        <v>0.0346444485037418</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E59" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="n">
+      <c r="G63" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <f aca="false">G63*$K$5</f>
+        <v>0.006432</v>
+      </c>
+      <c r="I63" s="38" t="n">
+        <f aca="false">H63+0.002</f>
+        <v>0.008432</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C64" s="5" t="n">
         <v>295</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D64" s="30" t="n">
+        <f aca="false">SQRT((0.5*B64/5)^2 + ($E$5)^2 + (C64*$G$5)^2)</f>
+        <v>10.1770575315265</v>
+      </c>
+      <c r="E64" s="37" t="n">
+        <f aca="false">D64/C64</f>
+        <v>0.0344985001068694</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E60" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="n">
+      <c r="G64" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <f aca="false">G64*$K$5</f>
+        <v>0.006948</v>
+      </c>
+      <c r="I64" s="38" t="n">
+        <f aca="false">H64+0.002</f>
+        <v>0.008948</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C65" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D65" s="30" t="n">
+        <f aca="false">SQRT((0.5*B65/5)^2 + ($E$5)^2 + (C65*$G$5)^2)</f>
+        <v>10.3077640640442</v>
+      </c>
+      <c r="E65" s="37" t="n">
+        <f aca="false">D65/C65</f>
+        <v>0.0343592135468138</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="n">
+      <c r="G65" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <f aca="false">G65*$K$5</f>
+        <v>0.00774</v>
+      </c>
+      <c r="I65" s="38" t="n">
+        <f aca="false">H65+0.002</f>
+        <v>0.00974</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C66" s="5" t="n">
         <v>305</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D66" s="30" t="n">
+        <f aca="false">SQRT((0.5*B66/5)^2 + ($E$5)^2 + (C66*$G$5)^2)</f>
+        <v>10.4389894146895</v>
+      </c>
+      <c r="E66" s="37" t="n">
+        <f aca="false">D66/C66</f>
+        <v>0.0342261948022607</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E62" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="n">
+      <c r="G66" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <f aca="false">G66*$K$5</f>
+        <v>0.00838</v>
+      </c>
+      <c r="I66" s="38" t="n">
+        <f aca="false">H66+0.002</f>
+        <v>0.01038</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C67" s="5" t="n">
         <v>310</v>
       </c>
-      <c r="D63" s="36" t="s">
+      <c r="D67" s="30" t="n">
+        <f aca="false">SQRT((0.5*B67/5)^2 + ($E$5)^2 + (C67*$G$5)^2)</f>
+        <v>10.5707142615814</v>
+      </c>
+      <c r="E67" s="37" t="n">
+        <f aca="false">D67/C67</f>
+        <v>0.0340990782631657</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="n">
+      <c r="G67" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <f aca="false">G67*$K$5</f>
+        <v>0.009264</v>
+      </c>
+      <c r="I67" s="38" t="n">
+        <f aca="false">H67+0.002</f>
+        <v>0.011264</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C68" s="5" t="n">
         <v>315</v>
       </c>
-      <c r="D64" s="36" t="s">
+      <c r="D68" s="30" t="n">
+        <f aca="false">SQRT((0.5*B68/5)^2 + ($E$5)^2 + (C68*$G$5)^2)</f>
+        <v>10.7029201622735</v>
+      </c>
+      <c r="E68" s="37" t="n">
+        <f aca="false">D68/C68</f>
+        <v>0.0339775243246777</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E64" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="n">
+      <c r="G68" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <f aca="false">G68*$K$5</f>
+        <v>0.010044</v>
+      </c>
+      <c r="I68" s="38" t="n">
+        <f aca="false">H68+0.002</f>
+        <v>0.012044</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C69" s="5" t="n">
         <v>320</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="D69" s="30" t="n">
+        <f aca="false">SQRT((0.5*B69/5)^2 + ($E$5)^2 + (C69*$G$5)^2)</f>
+        <v>10.8355895086516</v>
+      </c>
+      <c r="E69" s="37" t="n">
+        <f aca="false">D69/C69</f>
+        <v>0.0338612172145362</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E65" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="n">
+      <c r="G69" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <f aca="false">G69*$K$5</f>
+        <v>0.011064</v>
+      </c>
+      <c r="I69" s="38" t="n">
+        <f aca="false">H69+0.002</f>
+        <v>0.013064</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C70" s="5" t="n">
         <v>325</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D70" s="30" t="n">
+        <f aca="false">SQRT((0.5*B70/5)^2 + ($E$5)^2 + (C70*$G$5)^2)</f>
+        <v>10.9687054842402</v>
+      </c>
+      <c r="E70" s="37" t="n">
+        <f aca="false">D70/C70</f>
+        <v>0.0337498630284312</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E66" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="n">
+      <c r="G70" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <f aca="false">G70*$K$5</f>
+        <v>0.012</v>
+      </c>
+      <c r="I70" s="38" t="n">
+        <f aca="false">H70+0.002</f>
+        <v>0.014</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C67" s="39" t="n">
+      <c r="C71" s="39" t="n">
         <v>330</v>
       </c>
-      <c r="D67" s="36" t="s">
+      <c r="D71" s="30" t="n">
+        <f aca="false">SQRT((0.5*B71/5)^2 + ($E$5)^2 + (C71*$G$5)^2)</f>
+        <v>11.1022520238013</v>
+      </c>
+      <c r="E71" s="37" t="n">
+        <f aca="false">D71/C71</f>
+        <v>0.033643187950913</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E67" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="n">
+      <c r="G71" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <f aca="false">G71*$K$5</f>
+        <v>0.013024</v>
+      </c>
+      <c r="I71" s="38" t="n">
+        <f aca="false">H71+0.002</f>
+        <v>0.015024</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C72" s="5" t="n">
         <v>340</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D72" s="30" t="n">
+        <f aca="false">SQRT((0.5*B72/5)^2 + ($E$5)^2 + (C72*$G$5)^2)</f>
+        <v>14.293005282305</v>
+      </c>
+      <c r="E72" s="37" t="n">
+        <f aca="false">D72/C72</f>
+        <v>0.042038250830309</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E68" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="37" t="s">
-        <v>179</v>
+      <c r="G72" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <f aca="false">G72*$K$5</f>
+        <v>0.015232</v>
+      </c>
+      <c r="I72" s="38" t="n">
+        <f aca="false">H72+0.002</f>
+        <v>0.017232</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="0"/>
+      <c r="I73" s="27"/>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="0"/>
+      <c r="I74" s="27"/>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="0"/>
+      <c r="I75" s="27"/>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="0"/>
+      <c r="I76" s="27"/>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="27"/>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="0"/>
+      <c r="I78" s="27"/>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="0"/>
+      <c r="I79" s="27"/>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="0"/>
+      <c r="I80" s="27"/>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D81" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="36" t="n">
+        <v>0.92736184954957</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="27"/>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D82" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="36" t="n">
+        <v>1.03077640640442</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="0"/>
+      <c r="I82" s="27"/>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D83" s="36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E83" s="36" t="n">
+        <v>1.5337861650178</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>0.002004</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="27"/>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="D84" s="36" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E84" s="36" t="n">
+        <v>1.75285481429581</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>0.002008</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="0"/>
+      <c r="I84" s="27"/>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D85" s="36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E85" s="36" t="n">
+        <v>1.96834956245074</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>0.002012</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="0"/>
+      <c r="I85" s="27"/>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="D86" s="36" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E86" s="36" t="n">
+        <v>2.09353767580142</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>0.002016</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="0"/>
+      <c r="I86" s="27"/>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="D87" s="36" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E87" s="36" t="n">
+        <v>2.2477766792989</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>0.00202</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="0"/>
+      <c r="I87" s="27"/>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D88" s="36" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E88" s="36" t="n">
+        <v>2.94278779391243</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>0.002024</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="0"/>
+      <c r="I88" s="27"/>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="D89" s="36" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E89" s="36" t="n">
+        <v>2.9859001992699</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>0.002028</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="0"/>
+      <c r="I89" s="27"/>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="D90" s="36" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E90" s="36" t="n">
+        <v>3.07382497875204</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>0.002032</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="0"/>
+      <c r="I90" s="27"/>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="D91" s="36" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="E91" s="36" t="n">
+        <v>3.16385840391128</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>0.002036</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="0"/>
+      <c r="I91" s="27"/>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="D92" s="36" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E92" s="36" t="n">
+        <v>3.25582554815211</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>0.002044</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="0"/>
+      <c r="I92" s="27"/>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="D93" s="36" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E93" s="36" t="n">
+        <v>3.34956713621328</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>0.002048</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="0"/>
+      <c r="I93" s="27"/>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" s="36" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E94" s="36" t="n">
+        <v>3.44493831584834</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>0.002056</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="0"/>
+      <c r="I94" s="27"/>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D95" s="36" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E95" s="36" t="n">
+        <v>3.54180744818235</v>
+      </c>
+      <c r="F95" s="36" t="n">
+        <v>0.002064</v>
+      </c>
+      <c r="I95" s="25"/>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D96" s="36" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="E96" s="36" t="n">
+        <v>3.64005494464026</v>
+      </c>
+      <c r="F96" s="36" t="n">
+        <v>0.002072</v>
+      </c>
+      <c r="I96" s="25"/>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="D97" s="36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E97" s="36" t="n">
+        <v>3.73957216804276</v>
+      </c>
+      <c r="F97" s="36" t="n">
+        <v>0.00208</v>
+      </c>
+      <c r="I97" s="25"/>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="D98" s="36" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="E98" s="36" t="n">
+        <v>3.84026040783695</v>
+      </c>
+      <c r="F98" s="36" t="n">
+        <v>0.002092</v>
+      </c>
+      <c r="I98" s="25"/>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="D99" s="36" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="E99" s="36" t="n">
+        <v>3.94202993392998</v>
+      </c>
+      <c r="F99" s="36" t="n">
+        <v>0.002108</v>
+      </c>
+      <c r="I99" s="25"/>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="D100" s="36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E100" s="36" t="n">
+        <v>4.04479912974674</v>
+      </c>
+      <c r="F100" s="36" t="n">
+        <v>0.00212</v>
+      </c>
+      <c r="I100" s="25"/>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="D101" s="36" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="E101" s="36" t="n">
+        <v>4.14849370253831</v>
+      </c>
+      <c r="F101" s="36" t="n">
+        <v>0.002136</v>
+      </c>
+      <c r="I101" s="25"/>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="D102" s="36" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="E102" s="36" t="n">
+        <v>4.2530459673039</v>
+      </c>
+      <c r="F102" s="36" t="n">
+        <v>0.002156</v>
+      </c>
+      <c r="I102" s="25"/>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="D103" s="36" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="E103" s="36" t="n">
+        <v>4.35839419970245</v>
+      </c>
+      <c r="F103" s="36" t="n">
+        <v>0.002172</v>
+      </c>
+      <c r="I103" s="25"/>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="D104" s="36" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="E104" s="36" t="n">
+        <v>6.3608175575157</v>
+      </c>
+      <c r="F104" s="36" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="I104" s="25"/>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="D105" s="36" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="E105" s="36" t="n">
+        <v>6.45387480510739</v>
+      </c>
+      <c r="F105" s="36" t="n">
+        <v>0.002212</v>
+      </c>
+      <c r="I105" s="25"/>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="D106" s="36" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E106" s="36" t="n">
+        <v>6.54904573201318</v>
+      </c>
+      <c r="F106" s="36" t="n">
+        <v>0.002232</v>
+      </c>
+      <c r="I106" s="25"/>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="D107" s="36" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="E107" s="36" t="n">
+        <v>6.64623953826523</v>
+      </c>
+      <c r="F107" s="36" t="n">
+        <v>0.002268</v>
+      </c>
+      <c r="I107" s="25"/>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D108" s="36" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="E108" s="36" t="n">
+        <v>6.74536878161602</v>
+      </c>
+      <c r="F108" s="36" t="n">
+        <v>0.002312</v>
+      </c>
+      <c r="I108" s="25"/>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="D109" s="36" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="E109" s="36" t="n">
+        <v>6.84634939219435</v>
+      </c>
+      <c r="F109" s="36" t="n">
+        <v>0.002352</v>
+      </c>
+      <c r="I109" s="25"/>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D110" s="36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E110" s="36" t="n">
+        <v>6.94910066123668</v>
+      </c>
+      <c r="F110" s="36" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="I110" s="25"/>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="D111" s="36" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="E111" s="36" t="n">
+        <v>7.05354520790786</v>
+      </c>
+      <c r="F111" s="36" t="n">
+        <v>0.002456</v>
+      </c>
+      <c r="I111" s="25"/>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D112" s="36" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E112" s="36" t="n">
+        <v>7.1596089278675</v>
+      </c>
+      <c r="F112" s="36" t="n">
+        <v>0.00252</v>
+      </c>
+      <c r="I112" s="25"/>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="D113" s="36" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E113" s="36" t="n">
+        <v>7.26722092687432</v>
+      </c>
+      <c r="F113" s="36" t="n">
+        <v>0.002576</v>
+      </c>
+      <c r="I113" s="25"/>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="D114" s="36" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="E114" s="36" t="n">
+        <v>7.37631344236401</v>
+      </c>
+      <c r="F114" s="36" t="n">
+        <v>0.002656</v>
+      </c>
+      <c r="I114" s="25"/>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="D115" s="36" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="E115" s="36" t="n">
+        <v>7.48682175559162</v>
+      </c>
+      <c r="F115" s="36" t="n">
+        <v>0.002736</v>
+      </c>
+      <c r="I115" s="25"/>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="D116" s="36" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="E116" s="36" t="n">
+        <v>7.59868409660515</v>
+      </c>
+      <c r="F116" s="36" t="n">
+        <v>0.002816</v>
+      </c>
+      <c r="I116" s="25"/>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="D117" s="36" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="E117" s="36" t="n">
+        <v>7.71184154401528</v>
+      </c>
+      <c r="F117" s="36" t="n">
+        <v>0.002932</v>
+      </c>
+      <c r="I117" s="25"/>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="D118" s="36" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="E118" s="36" t="n">
+        <v>7.82623792124926</v>
+      </c>
+      <c r="F118" s="36" t="n">
+        <v>0.002996</v>
+      </c>
+      <c r="I118" s="25"/>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="D119" s="36" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E119" s="36" t="n">
+        <v>7.9418196907258</v>
+      </c>
+      <c r="F119" s="36" t="n">
+        <v>0.00312</v>
+      </c>
+      <c r="I119" s="25"/>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="D120" s="36" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="E120" s="36" t="n">
+        <v>8.05853584716231</v>
+      </c>
+      <c r="F120" s="36" t="n">
+        <v>0.003264</v>
+      </c>
+      <c r="I120" s="25"/>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="D121" s="36" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="E121" s="36" t="n">
+        <v>8.17633781102518</v>
+      </c>
+      <c r="F121" s="36" t="n">
+        <v>0.003404</v>
+      </c>
+      <c r="I121" s="25"/>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="D122" s="36" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E122" s="36" t="n">
+        <v>8.2951793229562</v>
+      </c>
+      <c r="F122" s="36" t="n">
+        <v>0.00356</v>
+      </c>
+      <c r="I122" s="25"/>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="D123" s="36" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="E123" s="36" t="n">
+        <v>8.41501633985342</v>
+      </c>
+      <c r="F123" s="36" t="n">
+        <v>0.003712</v>
+      </c>
+      <c r="I123" s="25"/>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="D124" s="36" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E124" s="36" t="n">
+        <v>8.53580693314932</v>
+      </c>
+      <c r="F124" s="36" t="n">
+        <v>0.00392</v>
+      </c>
+      <c r="I124" s="25"/>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="D125" s="36" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="E125" s="36" t="n">
+        <v>8.65751118971267</v>
+      </c>
+      <c r="F125" s="36" t="n">
+        <v>0.004136</v>
+      </c>
+      <c r="I125" s="25"/>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="D126" s="36" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E126" s="36" t="n">
+        <v>8.78009111570034</v>
+      </c>
+      <c r="F126" s="36" t="n">
+        <v>0.004364</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="D127" s="36" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="E127" s="36" t="n">
+        <v>8.9035105436002</v>
+      </c>
+      <c r="F127" s="36" t="n">
+        <v>0.00458</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="D128" s="36" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E128" s="36" t="n">
+        <v>9.02773504263389</v>
+      </c>
+      <c r="F128" s="36" t="n">
+        <v>0.00488</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="D129" s="36" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="E129" s="36" t="n">
+        <v>9.1527318326279</v>
+      </c>
+      <c r="F129" s="36" t="n">
+        <v>0.005212</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="D130" s="36" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="E130" s="36" t="n">
+        <v>9.2784697014109</v>
+      </c>
+      <c r="F130" s="36" t="n">
+        <v>0.005532</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="D131" s="36" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="E131" s="36" t="n">
+        <v>9.40491892575369</v>
+      </c>
+      <c r="F131" s="36" t="n">
+        <v>0.0059</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="D132" s="36" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="E132" s="36" t="n">
+        <v>9.53205119583398</v>
+      </c>
+      <c r="F132" s="36" t="n">
+        <v>0.006328</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="D133" s="36" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="E133" s="36" t="n">
+        <v>9.65983954318083</v>
+      </c>
+      <c r="F133" s="36" t="n">
+        <v>0.006788</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="D134" s="36" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="E134" s="36" t="n">
+        <v>9.78825827203185</v>
+      </c>
+      <c r="F134" s="36" t="n">
+        <v>0.007264</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="D135" s="36" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="E135" s="36" t="n">
+        <v>9.91728289401891</v>
+      </c>
+      <c r="F135" s="36" t="n">
+        <v>0.00774</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="D136" s="36" t="n">
+        <v>1.608</v>
+      </c>
+      <c r="E136" s="36" t="n">
+        <v>10.0468900660851</v>
+      </c>
+      <c r="F136" s="36" t="n">
+        <v>0.008432</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="D137" s="36" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E137" s="36" t="n">
+        <v>10.1770575315265</v>
+      </c>
+      <c r="F137" s="36" t="n">
+        <v>0.008948</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D138" s="36" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="E138" s="36" t="n">
+        <v>10.3077640640442</v>
+      </c>
+      <c r="F138" s="36" t="n">
+        <v>0.00974</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="D139" s="36" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="E139" s="36" t="n">
+        <v>10.4389894146895</v>
+      </c>
+      <c r="F139" s="36" t="n">
+        <v>0.01038</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="D140" s="36" t="n">
+        <v>2.316</v>
+      </c>
+      <c r="E140" s="36" t="n">
+        <v>10.5707142615814</v>
+      </c>
+      <c r="F140" s="36" t="n">
+        <v>0.011264</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="D141" s="36" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="E141" s="36" t="n">
+        <v>10.7029201622735</v>
+      </c>
+      <c r="F141" s="36" t="n">
+        <v>0.012044</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="D142" s="36" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="E142" s="36" t="n">
+        <v>10.8355895086516</v>
+      </c>
+      <c r="F142" s="36" t="n">
+        <v>0.013064</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="D143" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E143" s="36" t="n">
+        <v>10.9687054842402</v>
+      </c>
+      <c r="F143" s="36" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="D144" s="36" t="n">
+        <v>3.256</v>
+      </c>
+      <c r="E144" s="36" t="n">
+        <v>11.1022520238013</v>
+      </c>
+      <c r="F144" s="36" t="n">
+        <v>0.015024</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="D145" s="36" t="n">
+        <v>3.808</v>
+      </c>
+      <c r="E145" s="36" t="n">
+        <v>14.293005282305</v>
+      </c>
+      <c r="F145" s="36" t="n">
+        <v>0.017232</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
